--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711856.3955437124</v>
+        <v>704322.5779357564</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982517</v>
+        <v>284149.5140982514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043314</v>
+        <v>10241536.80043315</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518081.42068238</v>
+        <v>8518081.420682378</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>231.863583504628</v>
+        <v>20.85732126240478</v>
       </c>
       <c r="D2" t="n">
         <v>263.2420339516666</v>
@@ -668,64 +668,64 @@
         <v>263.2420339516666</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>206.9091621893709</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.097100052852153</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.59083785760313</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>66.35159003829708</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>51.96190712986733</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E5" t="n">
         <v>276.1565137023555</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>95.07440851494238</v>
+        <v>37.05312618749954</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>86.23693751337954</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>293.9751085373555</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.37650577010351</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9.275596830497106</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -1345,7 +1345,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>315.8263535402513</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>261.389335340349</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>31.25960649589813</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5113366705984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>216.1357776764019</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1819,7 +1819,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1971,10 +1971,10 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U18" t="n">
         <v>225.8879277888686</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9.461970681989468</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,19 +2084,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>186.9755710546457</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>29.41204342723553</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228957</v>
+        <v>187.1086023358206</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4.440065804380853</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>99.29033025312199</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>294.8613066552059</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>59.98907404047766</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.65793777463465</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>344.920336439876</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>119.2949683421035</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>70.18226380646153</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3029,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>158.9897392454093</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>41.75100837039689</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>268.6413070582232</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>11.28766011054686</v>
+        <v>355.5467565582664</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>48.97699675700472</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.1060804925964582</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>292.1380595743626</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>25.51890522568477</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>21.98731469248581</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>29.94054416508031</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,10 +3755,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>324.4964282009516</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>43.31785343913997</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>67.34019441677003</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>260.7620438202748</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1052.968135806666</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="C2" t="n">
-        <v>818.7624959030018</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8614515073789</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="E2" t="n">
-        <v>286.9604071117561</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="F2" t="n">
-        <v>21.05936271613333</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613333</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613333</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4373,7 +4373,7 @@
         <v>1052.968135806666</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.968135806666</v>
+        <v>787.0670914110435</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="L3" t="n">
-        <v>394.933760794076</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M3" t="n">
-        <v>531.9454581020244</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="N3" t="n">
-        <v>792.5550717141743</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O3" t="n">
-        <v>1052.968135806666</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
@@ -4434,25 +4434,25 @@
         <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>782.4144152406835</v>
+        <v>887.8812145285506</v>
       </c>
       <c r="T3" t="n">
-        <v>782.4144152406835</v>
+        <v>685.8961569436265</v>
       </c>
       <c r="U3" t="n">
-        <v>782.4144152406835</v>
+        <v>457.6758281858313</v>
       </c>
       <c r="V3" t="n">
-        <v>782.4144152406835</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="W3" t="n">
-        <v>528.1770585124818</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="X3" t="n">
-        <v>320.325558306949</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.5652595419951</v>
+        <v>222.5237199540885</v>
       </c>
     </row>
     <row r="4">
@@ -4465,28 +4465,28 @@
         <v>182.5089274706535</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919996</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613333</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>579.9844679696339</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="C5" t="n">
         <v>579.9844679696339</v>
       </c>
       <c r="D5" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E5" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F5" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G5" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
         <v>22.09252109618844</v>
@@ -4568,16 +4568,16 @@
         <v>22.09252109618846</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O5" t="n">
         <v>989.7620250901066</v>
@@ -4601,16 +4601,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V5" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W5" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X5" t="n">
         <v>858.9304414063566</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.9844679696339</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292.5803064530148</v>
+        <v>59.51992128558192</v>
       </c>
       <c r="C6" t="n">
-        <v>118.1272771718878</v>
+        <v>59.51992128558192</v>
       </c>
       <c r="D6" t="n">
-        <v>118.1272771718878</v>
+        <v>59.51992128558192</v>
       </c>
       <c r="E6" t="n">
         <v>22.09252109618844</v>
@@ -4653,16 +4653,16 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M6" t="n">
-        <v>555.4329354292296</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N6" t="n">
-        <v>828.8278839945615</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O6" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P6" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q6" t="n">
         <v>1104.626054809422</v>
@@ -4671,25 +4671,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U6" t="n">
-        <v>876.4074424435696</v>
+        <v>502.5235297228575</v>
       </c>
       <c r="V6" t="n">
-        <v>876.4074424435696</v>
+        <v>267.3714214911147</v>
       </c>
       <c r="W6" t="n">
-        <v>876.4074424435696</v>
+        <v>267.3714214911147</v>
       </c>
       <c r="X6" t="n">
-        <v>668.5559422380368</v>
+        <v>59.51992128558192</v>
       </c>
       <c r="Y6" t="n">
-        <v>460.7956434730829</v>
+        <v>59.51992128558192</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="G7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="H7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618844</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="J7" t="n">
         <v>22.09252109618844</v>
@@ -4750,25 +4750,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.717708340416</v>
+        <v>709.1532345052519</v>
       </c>
       <c r="C8" t="n">
-        <v>1257.755191400004</v>
+        <v>709.1532345052519</v>
       </c>
       <c r="D8" t="n">
-        <v>899.4894927932537</v>
+        <v>350.8875358985014</v>
       </c>
       <c r="E8" t="n">
-        <v>513.7012401950094</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F8" t="n">
-        <v>513.7012401950094</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G8" t="n">
-        <v>95.73743209319628</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>95.73743209319628</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1095.753074569374</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,7 +4902,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124032</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="U10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="V10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810049</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2323.103882821189</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>317.9726134772827</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5039,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548716</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y11" t="n">
-        <v>2642.120401548716</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5124,10 +5124,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5142,19 +5142,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C13" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D13" t="n">
-        <v>548.5954256477204</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E13" t="n">
-        <v>517.0200655508536</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W13" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X13" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583426</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036446</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.830123668321</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.546461473041</v>
+        <v>2225.068338306413</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>1894.005450962842</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>1541.236795692728</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982761</v>
+        <v>1167.771037431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.1098286224644</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5331,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.9687959810048</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9687959810048</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>108.9687959810048</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V16" t="n">
-        <v>108.9687959810048</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W16" t="n">
-        <v>108.9687959810048</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X16" t="n">
-        <v>108.9687959810048</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.9687959810048</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.5099885583422</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>159.5099885583422</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982757</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.109828622464</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5619,7 +5619,7 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
         <v>2289.884200196743</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5677,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406185</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T19" t="n">
-        <v>352.6741383092202</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U19" t="n">
-        <v>63.50052796378816</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V19" t="n">
-        <v>63.50052796378816</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>63.50052796378816</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785532</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889456</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5753,49 +5753,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2453.256188362205</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2199.494403000296</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1868.431515656725</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1868.431515656725</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>1494.965757395646</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5841,13 +5841,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5868,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="C22" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="D22" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5914,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>698.4198494314491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>698.4198494314491</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>698.4198494314491</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>698.4198494314491</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V22" t="n">
-        <v>443.7353612255621</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W22" t="n">
-        <v>443.7353612255621</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X22" t="n">
-        <v>443.7353612255621</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776798</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776798</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785536</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889461</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
@@ -5993,13 +5993,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6029,10 +6029,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036446</v>
@@ -6069,22 +6069,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6111,7 +6111,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4805193761947</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C25" t="n">
-        <v>377.5443364482878</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D25" t="n">
-        <v>227.4276970359521</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036446</v>
@@ -6151,46 +6151,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2251.981069572904</v>
+        <v>841.7662216508375</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.141365880777</v>
+        <v>472.8037047104257</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>114.5380061036752</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6230,13 +6230,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="X26" t="n">
-        <v>2642.120401548716</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="Y26" t="n">
-        <v>2251.981069572904</v>
+        <v>1228.366061714959</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>2265.291127898075</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>2096.354944970168</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>2096.354944970168</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>2096.354944970168</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>2096.354944970168</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>2096.354944970168</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>2096.354944970168</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>2446.939592728315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1679.782215419423</v>
+        <v>1519.351822121131</v>
       </c>
       <c r="C29" t="n">
-        <v>1679.782215419423</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D29" t="n">
-        <v>1679.782215419423</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E29" t="n">
-        <v>1293.993962821178</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F29" t="n">
-        <v>883.008058031571</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6494,19 +6494,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2576.649122995896</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.387305656314</v>
+        <v>2245.586235652325</v>
       </c>
       <c r="W29" t="n">
-        <v>2443.387305656314</v>
+        <v>1892.817580382211</v>
       </c>
       <c r="X29" t="n">
-        <v>2069.921547395234</v>
+        <v>1519.351822121131</v>
       </c>
       <c r="Y29" t="n">
-        <v>1679.782215419423</v>
+        <v>1519.351822121131</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C31" t="n">
-        <v>156.7517573047577</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D31" t="n">
-        <v>156.7517573047577</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E31" t="n">
-        <v>156.7517573047577</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F31" t="n">
-        <v>156.7517573047577</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036446</v>
@@ -6625,46 +6625,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247702</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.952954307291</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.952954307291</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E32" t="n">
-        <v>737.1647017090463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6698,13 +6698,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6780,22 +6780,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6816,10 +6816,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>2528.212908090316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>2486.040172362642</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>2486.040172362642</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>2486.040172362642</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>2317.040372100974</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
         <v>2022.963088632153</v>
@@ -6880,28 +6880,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1589.347031634719</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C35" t="n">
-        <v>1220.384514694307</v>
+        <v>1568.12097575261</v>
       </c>
       <c r="D35" t="n">
-        <v>862.1188160875565</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E35" t="n">
-        <v>476.3305634893123</v>
+        <v>824.0670245476149</v>
       </c>
       <c r="F35" t="n">
-        <v>65.34465869970472</v>
+        <v>413.0811197580073</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036446</v>
@@ -6971,16 +6971,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2366.086203674652</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1975.94687169884</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="36">
@@ -7017,13 +7017,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785276</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="D37" t="n">
-        <v>409.0761618661918</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="E37" t="n">
-        <v>261.1630682837987</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="F37" t="n">
-        <v>261.1630682837987</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="G37" t="n">
-        <v>261.1630682837987</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="H37" t="n">
-        <v>103.4146957163288</v>
+        <v>190.3790447344399</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>54.05013383308815</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036446</v>
@@ -7114,31 +7114,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776798</v>
+        <v>1294.457619255166</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117852</v>
+        <v>1294.457619255166</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>908.6693666569213</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>497.6834618673137</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>79.7196537655006</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>79.7196537655006</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224076</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036446</v>
@@ -7266,10 +7266,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7296,7 +7296,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>290.8087152951864</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C40" t="n">
-        <v>290.8087152951864</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D40" t="n">
-        <v>290.8087152951864</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>290.8087152951864</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5993065148977</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>290.8087152951864</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V40" t="n">
-        <v>290.8087152951864</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W40" t="n">
-        <v>290.8087152951864</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X40" t="n">
-        <v>290.8087152951864</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y40" t="n">
-        <v>290.8087152951864</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1779.584617183059</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.584617183059</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036446</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2169.72394915887</v>
+        <v>2369.374921118272</v>
       </c>
       <c r="X41" t="n">
-        <v>2169.72394915887</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y41" t="n">
-        <v>1779.584617183059</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="42">
@@ -7500,13 +7500,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.69838933464726</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C43" t="n">
-        <v>97.69838933464726</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D43" t="n">
-        <v>97.69838933464726</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E43" t="n">
-        <v>97.69838933464726</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F43" t="n">
-        <v>97.69838933464726</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7609,10 +7609,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X43" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y43" t="n">
-        <v>279.346854164887</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1036.358670716696</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>1036.358670716696</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.358670716696</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2212.181128500978</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>1881.118241157407</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W44" t="n">
-        <v>1813.097842756629</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.097842756629</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y44" t="n">
-        <v>1422.958510780817</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D46" t="n">
         <v>53.94298182036446</v>
@@ -7831,25 +7831,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>279.346854164887</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>267.9873942041307</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808119</v>
+        <v>380.4370814350377</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>274.3455134968399</v>
+        <v>361.0244890520116</v>
       </c>
       <c r="N6" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>133.4093082663796</v>
+        <v>344.4155705086027</v>
       </c>
       <c r="D2" t="n">
         <v>91.44100766901636</v>
@@ -22556,7 +22556,7 @@
         <v>118.6883361205952</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.2102214038314</v>
@@ -22565,10 +22565,10 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.94234579226421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22641,10 +22641,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,25 +22674,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>104.4121312949884</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>7.411751991652892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22723,13 +22723,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>102.2405633723434</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22784,10 +22784,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E5" t="n">
         <v>105.7738563699063</v>
@@ -22799,7 +22799,7 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H5" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -22841,16 +22841,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>84.51360120110027</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>126.4924434094344</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>62.57067194045857</v>
+        <v>120.5919542679014</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22911,16 +22911,16 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22960,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>67.31435166865141</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -22990,7 +22990,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>47.78481791206872</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -23021,25 +23021,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>87.95526153490624</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>110.5548104747577</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23066,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23197,7 +23197,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618411</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.90748812322931</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>93.29370628033394</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23315,16 +23315,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>115.174356150671</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>260.7615551004092</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.3125426812558487</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>94.13991699917838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23674,7 +23674,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,7 +23744,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>309.2728333501971</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>125.5036511103488</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>29.47274930301208</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>34.19566451747882</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>117.2531485529223</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24184,13 +24184,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24218,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789928</v>
+        <v>226.6755676849744</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>141.9938968421883</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>186.9915439888557</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>70.4115851158017</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>321.9412960317841</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,22 +24488,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>62.30768401770358</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,22 +24643,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24680,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>68.86383358091899</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24734,19 +24734,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>131.9291991661858</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,31 +24835,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>75.23878421646971</v>
       </c>
       <c r="G31" t="n">
-        <v>65.52911452950164</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,19 +24917,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>222.9406308268525</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,22 +24962,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8644646478155</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,10 +25129,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4965099102481</v>
+        <v>58.23741346252859</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25211,16 +25211,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,10 +25330,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.98862503533351</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.09387869594054</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801578</v>
@@ -25394,10 +25394,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>62.5449820463204</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>126.4124110191765</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>123.4337333304454</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,7 +25603,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25628,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>324.7424974556026</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>24.74454051646137</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9919488199109</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>281.900774300643</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>125.4758948357788</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>105.2976195790724</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26071,25 +26071,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>21.8741453697219</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484207.1823542058</v>
+        <v>484207.1823542056</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>494243.3891182223</v>
+        <v>494243.3891182222</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>787228.4241821775</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>156006.1355264978</v>
       </c>
       <c r="C2" t="n">
-        <v>159463.6497950859</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="D2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="E2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="F2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="E2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="F2" t="n">
-        <v>260237.3490141818</v>
       </c>
       <c r="G2" t="n">
         <v>260237.3490141818</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
+        <v>260237.3490141815</v>
+      </c>
+      <c r="K2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="L2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="L2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="M2" t="n">
-        <v>260237.3490141818</v>
       </c>
       <c r="N2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141818</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>15106.68758438935</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.622153688</v>
+        <v>417183.6221536882</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>3323.773824475296</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392803</v>
+        <v>100763.3119392804</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32856.99051041313</v>
+        <v>33719.40849968307</v>
       </c>
       <c r="C4" t="n">
-        <v>32913.51192549014</v>
+        <v>33777.16046143055</v>
       </c>
       <c r="D4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="J4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37379.71726569816</v>
+        <v>-38242.1352549681</v>
       </c>
       <c r="C6" t="n">
-        <v>60262.07076842623</v>
+        <v>59398.42223248578</v>
       </c>
       <c r="D6" t="n">
-        <v>-274838.5722403678</v>
+        <v>-275750.0978431827</v>
       </c>
       <c r="E6" t="n">
-        <v>175972.6499133202</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="F6" t="n">
-        <v>175972.6499133203</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="G6" t="n">
-        <v>175972.6499133204</v>
+        <v>175061.1243105055</v>
       </c>
       <c r="H6" t="n">
-        <v>175972.6499133204</v>
+        <v>175061.1243105055</v>
       </c>
       <c r="I6" t="n">
-        <v>175972.6499133202</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="J6" t="n">
-        <v>107096.9511820704</v>
+        <v>106185.4255792554</v>
       </c>
       <c r="K6" t="n">
-        <v>172648.876088845</v>
+        <v>171737.35048603</v>
       </c>
       <c r="L6" t="n">
-        <v>75209.33797403981</v>
+        <v>74297.81237122501</v>
       </c>
       <c r="M6" t="n">
-        <v>175972.6499133203</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="N6" t="n">
-        <v>175972.6499133203</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="O6" t="n">
-        <v>175972.6499133203</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="P6" t="n">
-        <v>175972.6499133202</v>
+        <v>175061.1243105055</v>
       </c>
     </row>
   </sheetData>
@@ -26741,31 +26741,31 @@
         <v>35.02126071912534</v>
       </c>
       <c r="D3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="F3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170867</v>
@@ -26793,13 +26793,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26963,7 +26963,7 @@
         <v>12.00787803233596</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979614</v>
+        <v>342.7224034979615</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>12.91447975068888</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>138.3956538464126</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>261.9696201058924</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>151.2980666667449</v>
+        <v>237.9770422219166</v>
       </c>
       <c r="N6" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,7 +37394,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704322.5779357564</v>
+        <v>742888.175186464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982514</v>
+        <v>335414.3901624709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043315</v>
+        <v>10905804.67830213</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518081.420682378</v>
+        <v>8194462.196483679</v>
       </c>
     </row>
     <row r="11">
@@ -659,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.85732126240478</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="D2" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>84.8332249016951</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>66.35159003829708</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>51.96190712986733</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>239.3713271749017</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>37.05312618749954</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>111.4921847092025</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>86.23693751337954</v>
+        <v>22.69098551756509</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>293.9751085373555</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.40579841663124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S9" t="n">
-        <v>156.591242632523</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>95.03758237058962</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830497106</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>159.8350691069755</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>261.389335340349</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>302.7279097246868</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1610,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>110.7002136147241</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1357776764019</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>45.199959188537</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>81.12200652863734</v>
+        <v>213.9146548883927</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1974,7 +1976,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
         <v>225.8879277888686</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>292.1380595743622</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>186.9755710546457</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.9368849988963</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>187.1086023358206</v>
+        <v>394.2018941786167</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>99.29033025312199</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>59.98907404047766</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>84.95149223441575</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.65793777463465</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>213.6743229269899</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>87.62275275978043</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>119.2949683421035</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2950,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.18226380646153</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>158.9897392454093</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>142.684298484064</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>268.6413070582232</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>355.5467565582664</v>
+        <v>230.7500495332057</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,31 +3423,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>48.97699675700453</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1060804925964582</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>151.1176614490294</v>
       </c>
       <c r="I38" t="n">
-        <v>25.51890522568477</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>184.5808806410308</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>324.4964282009516</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>25.31590541686257</v>
+        <v>123.4514883688805</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.31894319385985</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>260.7620438202748</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>43.31785343913997</v>
+        <v>55.90301252244923</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.0670914110435</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>765.9990901358872</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D2" t="n">
-        <v>500.0980457402644</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E2" t="n">
-        <v>234.1970013446415</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F2" t="n">
-        <v>234.1970013446415</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1970013446415</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446415</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.0670914110435</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222.5237199540885</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C3" t="n">
-        <v>222.5237199540885</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D3" t="n">
-        <v>222.5237199540885</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E3" t="n">
-        <v>222.5237199540885</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>222.5237199540885</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>222.5237199540885</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>24.9501803568321</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516946</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>265.5537082516946</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>524.903632156528</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>785.3166962490201</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8812145285506</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>685.8961569436265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>457.6758281858313</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>222.5237199540885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>222.5237199540885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>222.5237199540885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>222.5237199540885</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>130.0221525919996</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423046</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>858.9304414063566</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="C5" t="n">
-        <v>579.9844679696339</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="D5" t="n">
-        <v>301.0384945329112</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="E5" t="n">
-        <v>22.09252109618844</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="F5" t="n">
-        <v>22.09252109618844</v>
+        <v>736.461710075982</v>
       </c>
       <c r="G5" t="n">
-        <v>22.09252109618844</v>
+        <v>489.428647084929</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618844</v>
+        <v>242.3955840938761</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618844</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618846</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438684</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412869</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173957</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823544</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901066</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V5" t="n">
-        <v>858.9304414063566</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W5" t="n">
-        <v>858.9304414063566</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X5" t="n">
-        <v>858.9304414063566</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y5" t="n">
-        <v>858.9304414063566</v>
+        <v>978.2509294445696</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.51992128558192</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="C6" t="n">
-        <v>59.51992128558192</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="D6" t="n">
-        <v>59.51992128558192</v>
+        <v>279.3916219496347</v>
       </c>
       <c r="E6" t="n">
-        <v>22.09252109618844</v>
+        <v>279.3916219496347</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>159.4923828364511</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>405.6478494291521</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="M6" t="n">
-        <v>641.2451212288496</v>
+        <v>309.879344433331</v>
       </c>
       <c r="N6" t="n">
-        <v>641.2451212288496</v>
+        <v>551.996449470862</v>
       </c>
       <c r="O6" t="n">
-        <v>907.7419348121334</v>
+        <v>794.113554508393</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>932.6220420606005</v>
+        <v>865.6325610514357</v>
       </c>
       <c r="T6" t="n">
-        <v>730.7421420887098</v>
+        <v>663.4781398426287</v>
       </c>
       <c r="U6" t="n">
-        <v>502.5235297228575</v>
+        <v>663.4781398426287</v>
       </c>
       <c r="V6" t="n">
-        <v>267.3714214911147</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="W6" t="n">
-        <v>267.3714214911147</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="X6" t="n">
-        <v>59.51992128558192</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="Y6" t="n">
-        <v>59.51992128558192</v>
+        <v>428.3260316108859</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="G7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="H7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="I7" t="n">
-        <v>111.8846993128535</v>
+        <v>135.111059141955</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618844</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492715</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160687</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754623</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>709.1532345052519</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="C8" t="n">
-        <v>709.1532345052519</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="D8" t="n">
-        <v>350.8875358985014</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036446</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036446</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098033</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>843.9662583320093</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>619.0259954159492</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>619.0259954159492</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>353.1249510203257</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>87.22390662470229</v>
       </c>
       <c r="Y8" t="n">
-        <v>1095.753074569374</v>
+        <v>87.22390662470229</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>24.95018035683224</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>158.2210505399126</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>398.8245784347753</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>659.4341920469258</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>860.9667611285699</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>860.9667611285699</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>954.903022648045</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>782.4144152406859</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>580.4293576557618</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>352.2090288979666</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>117.0569206662239</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124032</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810049</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>686.9351304176944</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C11" t="n">
-        <v>317.9726134772827</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>777.6925573208512</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>359.728749219038</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5066,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1837.140060718708</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1463.674302457628</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>1073.534970481816</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5123,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417901</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5230,19 +5232,19 @@
         <v>108.9687959810048</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>551.5496320092391</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.830123668321</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2225.068338306413</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>1894.005450962842</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W14" t="n">
-        <v>1541.236795692728</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X14" t="n">
-        <v>1167.771037431648</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="15">
@@ -5337,19 +5339,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5373,7 +5375,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59950625323012</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
         <v>99.59950625323012</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5543,13 +5545,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2615.207670282225</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="V17" t="n">
-        <v>2284.144782938654</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W17" t="n">
         <v>1931.37612766854</v>
@@ -5613,13 +5615,13 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
         <v>2289.884200196743</v>
@@ -5698,19 +5700,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>536.6170209242687</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1108.365917331524</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>739.4034003911122</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>381.1377017843616</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>766.99573898719</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>349.0319308853768</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2453.256188362205</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2199.494403000296</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1868.431515656725</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1868.431515656725</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1494.965757395646</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1494.965757395646</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5850,22 +5852,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.05843098304948</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C22" t="n">
-        <v>65.05843098304948</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D22" t="n">
-        <v>65.05843098304948</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E22" t="n">
-        <v>65.05843098304948</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F22" t="n">
-        <v>65.05843098304948</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G22" t="n">
-        <v>65.05843098304948</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H22" t="n">
-        <v>65.05843098304948</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036445</v>
@@ -5935,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>285.8510101265796</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.05843098304948</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037878</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E23" t="n">
-        <v>807.393450832883</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="F23" t="n">
-        <v>396.4075460432754</v>
+        <v>452.1267133139167</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018223</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6065,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>190.2718927217162</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D25" t="n">
-        <v>190.2718927217162</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>841.7662216508375</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C26" t="n">
-        <v>472.8037047104257</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D26" t="n">
-        <v>114.5380061036752</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>139.7525699359359</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6230,7 +6232,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6251,25 +6253,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>1618.505393690771</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X26" t="n">
-        <v>1618.505393690771</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y26" t="n">
-        <v>1228.366061714959</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2265.291127898075</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C28" t="n">
-        <v>2096.354944970168</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>2096.354944970168</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>2096.354944970168</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>2096.354944970168</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>2096.354944970168</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>2096.354944970168</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
         <v>2022.963088632153</v>
@@ -6403,31 +6405,31 @@
         <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U28" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V28" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W28" t="n">
-        <v>2667.732171871845</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X28" t="n">
-        <v>2667.732171871845</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y28" t="n">
-        <v>2446.939592728315</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1519.351822121131</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.38930518072</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D29" t="n">
-        <v>792.1236065739693</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2553.612570478231</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2334.977903450294</v>
       </c>
       <c r="U29" t="n">
-        <v>2576.649122995896</v>
+        <v>2081.216118088385</v>
       </c>
       <c r="V29" t="n">
-        <v>2245.586235652325</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="W29" t="n">
-        <v>1892.817580382211</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X29" t="n">
-        <v>1519.351822121131</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y29" t="n">
-        <v>1519.351822121131</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>559.1928012785274</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>409.0761618661917</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>261.1630682837986</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064343</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.5386780278486</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C32" t="n">
-        <v>214.5386780278486</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D32" t="n">
-        <v>214.5386780278486</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>525.2632558086686</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>525.2632558086686</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>198.0685358446715</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>991.2778500677821</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y32" t="n">
-        <v>601.1385180919704</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6862,34 +6864,34 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>2549.002432452407</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T34" t="n">
-        <v>2549.002432452407</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U34" t="n">
-        <v>2277.64757683804</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V34" t="n">
         <v>2022.963088632153</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1937.083492693021</v>
+        <v>1031.077791139708</v>
       </c>
       <c r="C35" t="n">
-        <v>1568.12097575261</v>
+        <v>1031.077791139708</v>
       </c>
       <c r="D35" t="n">
-        <v>1209.855277145859</v>
+        <v>672.8120925329579</v>
       </c>
       <c r="E35" t="n">
-        <v>824.0670245476149</v>
+        <v>287.0238399347136</v>
       </c>
       <c r="F35" t="n">
-        <v>413.0811197580073</v>
+        <v>287.0238399347136</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1421.21712311552</v>
       </c>
       <c r="Y35" t="n">
-        <v>2323.683332757143</v>
+        <v>1031.077791139708</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7026,37 +7028,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.0636002298166</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>348.1274173019098</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D37" t="n">
-        <v>348.1274173019098</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E37" t="n">
-        <v>348.1274173019098</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F37" t="n">
-        <v>348.1274173019098</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G37" t="n">
-        <v>348.1274173019098</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>190.3790447344399</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>54.05013383308815</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1663.420136195577</v>
+        <v>982.8165910026951</v>
       </c>
       <c r="C38" t="n">
-        <v>1294.457619255166</v>
+        <v>982.8165910026951</v>
       </c>
       <c r="D38" t="n">
-        <v>1294.457619255166</v>
+        <v>624.5508923959446</v>
       </c>
       <c r="E38" t="n">
-        <v>908.6693666569213</v>
+        <v>624.5508923959446</v>
       </c>
       <c r="F38" t="n">
-        <v>497.6834618673137</v>
+        <v>624.5508923959446</v>
       </c>
       <c r="G38" t="n">
-        <v>79.7196537655006</v>
+        <v>206.5870842941315</v>
       </c>
       <c r="H38" t="n">
-        <v>79.7196537655006</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520779</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V38" t="n">
-        <v>2423.485734520779</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W38" t="n">
-        <v>2423.485734520779</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X38" t="n">
-        <v>2050.019976259699</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y38" t="n">
-        <v>2050.019976259699</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7263,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7296,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2294.708047044453</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C40" t="n">
-        <v>2125.771864116546</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018223</v>
+        <v>2407.731920981261</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018223</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y40" t="n">
-        <v>2476.356511874693</v>
+        <v>2179.742370083244</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1995.909162857192</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C41" t="n">
-        <v>1626.94664591678</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W41" t="n">
-        <v>2369.374921118272</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X41" t="n">
-        <v>1995.909162857192</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y41" t="n">
-        <v>1995.909162857192</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761947</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5443364482878</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="D43" t="n">
-        <v>227.4276970359521</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="E43" t="n">
-        <v>79.51460345355898</v>
+        <v>2294.551509229942</v>
       </c>
       <c r="F43" t="n">
-        <v>79.51460345355898</v>
+        <v>2147.661561732032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064344</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064344</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064344</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064344</v>
+        <v>2442.464602812335</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253592</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>1287.18493033413</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036446</v>
+        <v>901.396677735886</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>490.4107729462784</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>72.4469648444653</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W44" t="n">
-        <v>1816.955293888756</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X44" t="n">
-        <v>1816.955293888756</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="Y44" t="n">
-        <v>1553.559290029893</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.69838933464726</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C46" t="n">
-        <v>97.69838933464726</v>
+        <v>110.4106712369798</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084171</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.346854164887</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577181</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>380.4370814350377</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>361.0244890520116</v>
+        <v>305.4787308973524</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.833774309385</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>322.0357129267655</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>130.818820193404</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,7 +9956,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928319</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>344.4155705086027</v>
+        <v>363.4633956979714</v>
       </c>
       <c r="D2" t="n">
-        <v>91.44100766901636</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2102214038314</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,19 +22628,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>87.87527408662064</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>104.4121312949884</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22717,13 +22719,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>102.2405633723434</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>167.5047185668097</v>
       </c>
       <c r="G5" t="n">
-        <v>415.1619485273195</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>94.7608136808341</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>84.51360120110027</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22866,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>120.5919542679014</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>60.04420517432507</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22926,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>67.31435166865141</v>
+        <v>132.5602576318105</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>87.95526153490624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>145.5033637727396</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>64.51022451846774</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268019</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23160,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>156.65740079033</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618411</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>15.59235192972082</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>93.29370628033394</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>21.19486303967034</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23306,7 +23308,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23315,10 +23317,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23434,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>125.6900249618412</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>243.9828280059589</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3125426812558487</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23783,16 +23785,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>170.102160979652</v>
+        <v>37.30951261989662</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>22.54869530067504</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>31.78471318999493</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>29.47274930301208</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.19566451747882</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>91.64776835319847</v>
       </c>
     </row>
     <row r="23">
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>226.6755676849744</v>
+        <v>19.58227584217826</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,13 +24265,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>186.9915439888557</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>321.9412960317841</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,10 +24460,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>66.9798240104455</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>62.30768401770358</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>4.91033042510486</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>86.79296004919111</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>131.9291991661858</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24838,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>75.23878421646971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24856,7 +24858,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24892,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401882</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>222.9406308268525</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>9.247017760797291</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25120,19 +25122,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787177</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>17.64056718375451</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>58.23741346252859</v>
+        <v>183.0341204875893</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>118.3328055020464</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.09387869594054</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>172.8051113153278</v>
       </c>
       <c r="I38" t="n">
-        <v>126.4124110191765</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>24.62049154535651</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>31.86743971662696</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>24.74454051646137</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.9938968421883</v>
+        <v>43.85831389017045</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25843,7 +25845,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>305.6038295704973</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25916,7 +25918,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>125.4758948357788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>105.2976195790724</v>
+        <v>92.71246049576312</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484207.1823542056</v>
+        <v>465488.0628680184</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>494243.3891182222</v>
+        <v>468513.8588979499</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787228.4241821774</v>
+        <v>484207.1823542063</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156006.1355264978</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="C2" t="n">
-        <v>159463.6497950858</v>
+        <v>150588.1755146548</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141817</v>
+        <v>156006.1355264979</v>
       </c>
       <c r="E2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="F2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
+        <v>260237.3490141815</v>
+      </c>
+      <c r="J2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="J2" t="n">
-        <v>260237.3490141815</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141816</v>
@@ -26344,16 +26346,16 @@
         <v>260237.3490141817</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141817</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438935</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536882</v>
+        <v>22364.98695753593</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475296</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>4727.563118847505</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.117690635</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>33649.84678425771</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33663.59862924285</v>
+      </c>
+      <c r="D4" t="n">
         <v>33719.40849968307</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33777.16046143055</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26436,7 +26438,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>35944.74664026683</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
         <v>35944.74664026682</v>
@@ -26451,7 +26453,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="O4" t="n">
         <v>35944.74664026682</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>51181.37951678014</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26488,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26497,19 +26499,19 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="M5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38242.1352549681</v>
+        <v>-13155.94180136795</v>
       </c>
       <c r="C6" t="n">
-        <v>59398.42223248578</v>
+        <v>63855.64757802831</v>
       </c>
       <c r="D6" t="n">
-        <v>-275750.0978431827</v>
+        <v>49787.33266244554</v>
       </c>
       <c r="E6" t="n">
-        <v>175061.1243105054</v>
+        <v>-232659.3133730685</v>
       </c>
       <c r="F6" t="n">
         <v>175061.1243105053</v>
       </c>
       <c r="G6" t="n">
-        <v>175061.1243105055</v>
+        <v>175061.1243105052</v>
       </c>
       <c r="H6" t="n">
-        <v>175061.1243105055</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="I6" t="n">
+        <v>175061.1243105052</v>
+      </c>
+      <c r="J6" t="n">
+        <v>112001.181711399</v>
+      </c>
+      <c r="K6" t="n">
+        <v>174147.8685080482</v>
+      </c>
+      <c r="L6" t="n">
+        <v>170333.5611916579</v>
+      </c>
+      <c r="M6" t="n">
+        <v>72627.00661987034</v>
+      </c>
+      <c r="N6" t="n">
         <v>175061.1243105053</v>
       </c>
-      <c r="J6" t="n">
-        <v>106185.4255792554</v>
-      </c>
-      <c r="K6" t="n">
-        <v>171737.35048603</v>
-      </c>
-      <c r="L6" t="n">
-        <v>74297.81237122501</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>175061.1243105054</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>175061.1243105054</v>
-      </c>
-      <c r="O6" t="n">
-        <v>175061.1243105053</v>
-      </c>
-      <c r="P6" t="n">
-        <v>175061.1243105055</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912534</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26768,16 +26770,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26808,7 +26810,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -26817,19 +26819,19 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233596</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979615</v>
+        <v>19.33951979354754</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4418552214663</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>5.42776745276012</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884599</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>22.21755819470702</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677233</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840334</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081218</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411507</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796963</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587038</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847513</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.616303794162698</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727679</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335885</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358773</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192331</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833409</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689049</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650263</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164377</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263571</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504676</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227322</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174389</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170847</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894685</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>9.89953440294882</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394052</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179687</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938414</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587926</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>2.839592713390063</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025627</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>4.676710155246607</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>12.54229356430047</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>12.87425075418822</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34357,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>261.9696201058924</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903813</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503282</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315785</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>237.9770422219166</v>
+        <v>165.3469522521511</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721082</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062265</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421936</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988751</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>134.61704058897</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>203.5682515976204</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>193.9407825031301</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338903</v>
@@ -35741,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36212,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060959</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37798,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>742888.175186464</v>
+        <v>678501.3552164225</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624709</v>
+        <v>236428.331398364</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830213</v>
+        <v>9662474.503279343</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8194462.196483679</v>
+        <v>8809834.007315582</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C2" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.8332249016951</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>176.2765168226945</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>239.3713271749017</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5627323611424</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>111.4921847092025</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.69098551756509</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>95.09886645461994</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>61.40579841663124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516672</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.0844620270375</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>95.03758237058962</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>159.8350691069755</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>302.7279097246868</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>277.5589161985223</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>110.7002136147241</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>98.63122914173799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>59.0322609154504</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>213.9146548883927</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>128.7835007017901</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>223.8243835520301</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>292.1380595743622</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>70.79715983894148</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>71.27833349215638</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.9368849988963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>333.4054520543809</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>394.2018941786167</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>84.95149223441575</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>185.0854493190879</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>37.83808333974883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.6743229269899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>87.62275275978043</v>
+        <v>90.58576989129789</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.63926978363978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>81.925478119856</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>142.684298484064</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.1271626621471</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>230.7500495332057</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>14.82811972447736</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>48.97699675700453</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
-        <v>151.1176614490294</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>47.40419526769224</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>184.5808806410308</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>16.88986550434897</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>123.4514883688805</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>18.31894319385985</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>326.6451754880395</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>55.90301252244923</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C2" t="n">
-        <v>962.2293816994886</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D2" t="n">
-        <v>718.7806050553886</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E2" t="n">
-        <v>718.7806050553886</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C3" t="n">
-        <v>670.606730582354</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>521.6723209211027</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>485.8202418432343</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.2509294445696</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C5" t="n">
-        <v>978.2509294445696</v>
+        <v>1214.415758416387</v>
       </c>
       <c r="D5" t="n">
-        <v>978.2509294445696</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>978.2509294445696</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>736.461710075982</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>489.428647084929</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>242.3955840938761</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>30.36882024860222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>978.2509294445696</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>978.2509294445696</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>978.2509294445696</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>978.2509294445696</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>978.2509294445696</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>978.2509294445696</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>978.2509294445696</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428.3260316108859</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>428.3260316108859</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>279.3916219496347</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>279.3916219496347</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>132.8570639765196</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>132.8570639765196</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>146.1858617037014</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>309.879344433331</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>551.996449470862</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>794.113554508393</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>865.6325610514357</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>663.4781398426287</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>663.4781398426287</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>428.3260316108859</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>428.3260316108859</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>428.3260316108859</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>428.3260316108859</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>135.111059141955</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>41.28197559507151</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>158.0312465334349</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.22390662470229</v>
+        <v>1675.109392681466</v>
       </c>
       <c r="C8" t="n">
-        <v>87.22390662470229</v>
+        <v>1306.146875741055</v>
       </c>
       <c r="D8" t="n">
-        <v>87.22390662470229</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>87.22390662470229</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>87.22390662470229</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>87.22390662470229</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>87.22390662470229</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800408</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613337</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573685</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142367</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098033</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369341</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885156</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806669</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806669</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>843.9662583320093</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>619.0259954159492</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>619.0259954159492</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V8" t="n">
-        <v>353.1249510203257</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W8" t="n">
-        <v>353.1249510203257</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="X8" t="n">
-        <v>87.22390662470229</v>
+        <v>1675.109392681466</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.22390662470229</v>
+        <v>1675.109392681466</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613337</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613337</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613337</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613337</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613337</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613337</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613337</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683224</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399126</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>398.8245784347753</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>659.4341920469258</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>860.9667611285699</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285699</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806669</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806669</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>954.903022648045</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>782.4144152406859</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>580.4293576557618</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>352.2090288979666</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>117.0569206662239</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>21.05936271613337</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>21.05936271613337</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613337</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613337</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360313</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955242</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716489</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706541</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706541</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613337</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613337</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613337</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613337</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613337</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C11" t="n">
-        <v>1546.944160717209</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D11" t="n">
-        <v>1188.678462110459</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.678462110459</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>777.6925573208512</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>359.728749219038</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5041,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1931.818586886308</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5123,40 +5123,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>920.5121489496507</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C14" t="n">
-        <v>551.5496320092391</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>898.7290140697485</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>480.7652059679353</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>153.5704860039382</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V14" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2070.717079250664</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.251320989584</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y14" t="n">
-        <v>1307.111989013772</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>781.1711973675267</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>412.2086804271149</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2637.52054463898</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="U17" t="n">
-        <v>2262.439015012111</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V17" t="n">
-        <v>1931.37612766854</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W17" t="n">
-        <v>1931.37612766854</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X17" t="n">
-        <v>1557.91036940746</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y17" t="n">
-        <v>1167.771037431648</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>598.0446400632119</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E20" t="n">
-        <v>1177.981643776797</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>766.99573898719</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>349.0319308853768</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2394.430631197288</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2140.66884583538</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2140.66884583538</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1787.900190565266</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>1787.900190565266</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1397.760858589454</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>190.2718927217162</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C22" t="n">
-        <v>190.2718927217162</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="D22" t="n">
-        <v>190.2718927217162</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="E22" t="n">
-        <v>190.2718927217162</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="F22" t="n">
-        <v>190.2718927217162</v>
+        <v>125.9412984791083</v>
       </c>
       <c r="G22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X22" t="n">
-        <v>500.1394333084169</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y22" t="n">
-        <v>371.9203575519559</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.1126181035243</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="C23" t="n">
-        <v>863.1126181035243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D23" t="n">
-        <v>863.1126181035243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E23" t="n">
-        <v>863.1126181035243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F23" t="n">
-        <v>452.1267133139167</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y23" t="n">
-        <v>1249.712458167646</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="24">
@@ -6068,13 +6068,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1194.175505447095</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C26" t="n">
-        <v>825.2129885066836</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D26" t="n">
-        <v>466.9472898999331</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E26" t="n">
-        <v>466.9472898999331</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>466.9472898999331</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>466.9472898999331</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>139.7525699359359</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6256,22 +6256,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2510.194091706013</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2256.432306344104</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>1925.369419000534</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748109</v>
+        <v>1572.60076373042</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487029</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2191.89927156006</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018223</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="W28" t="n">
-        <v>2407.731920981262</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="X28" t="n">
-        <v>2407.731920981262</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="Y28" t="n">
-        <v>2191.89927156006</v>
+        <v>689.9086980046678</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1363.553390680693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C29" t="n">
-        <v>1363.553390680693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D29" t="n">
-        <v>1363.553390680693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2553.612570478231</v>
+        <v>2550.619623880737</v>
       </c>
       <c r="T29" t="n">
-        <v>2334.977903450294</v>
+        <v>2331.9849568528</v>
       </c>
       <c r="U29" t="n">
-        <v>2081.216118088385</v>
+        <v>2331.9849568528</v>
       </c>
       <c r="V29" t="n">
-        <v>1750.153230744814</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="W29" t="n">
-        <v>1750.153230744814</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="X29" t="n">
-        <v>1750.153230744814</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y29" t="n">
-        <v>1750.153230744814</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2312.380258669114</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>936.2491605982761</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C32" t="n">
-        <v>936.2491605982761</v>
+        <v>880.7499412272339</v>
       </c>
       <c r="D32" t="n">
-        <v>936.2491605982761</v>
+        <v>522.4842426204834</v>
       </c>
       <c r="E32" t="n">
-        <v>936.2491605982761</v>
+        <v>136.6959900222392</v>
       </c>
       <c r="F32" t="n">
-        <v>525.2632558086686</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G32" t="n">
-        <v>525.2632558086686</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>198.0685358446715</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982761</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y32" t="n">
-        <v>936.2491605982761</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2539.444886308983</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.136698977585</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1031.077791139708</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C35" t="n">
-        <v>1031.077791139708</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>672.8120925329579</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>287.0238399347136</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>287.0238399347136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2147.451536646714</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="W35" t="n">
-        <v>1794.6828813766</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="X35" t="n">
-        <v>1421.21712311552</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y35" t="n">
-        <v>1031.077791139708</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="36">
@@ -6992,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>982.8165910026951</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>982.8165910026951</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>624.5508923959446</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>624.5508923959446</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>624.5508923959446</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
-        <v>206.5870842941315</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7207,19 +7207,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1759.555763042629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1759.555763042629</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1369.416431066817</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.9054987607761</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C41" t="n">
-        <v>53.94298182036444</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036444</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036444</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036444</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2510.703757037383</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2256.941971675474</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>1925.879084331904</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1573.11042906179</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>1199.64467080071</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y41" t="n">
-        <v>809.505338824898</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,19 +7487,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2442.464602812335</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="C43" t="n">
-        <v>2442.464602812335</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="D43" t="n">
-        <v>2442.464602812335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>2294.551509229942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>2147.661561732032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>2442.464602812335</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>2442.464602812335</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X43" t="n">
-        <v>2442.464602812335</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y43" t="n">
-        <v>2442.464602812335</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1645.450628940881</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="C44" t="n">
-        <v>1645.450628940881</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.18493033413</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E44" t="n">
-        <v>901.396677735886</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F44" t="n">
-        <v>490.4107729462784</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>72.4469648444653</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>1663.60183976795</v>
       </c>
       <c r="W44" t="n">
-        <v>2035.589960916692</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="X44" t="n">
-        <v>2035.589960916692</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="Y44" t="n">
-        <v>1645.450628940881</v>
+        <v>1310.833184497836</v>
       </c>
     </row>
     <row r="45">
@@ -7703,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>342.8174005213524</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8385818314783</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>305.4787308973524</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627881</v>
       </c>
       <c r="M9" t="n">
-        <v>392.833774309385</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>322.0357129267655</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>130.818820193404</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868108</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9956,7 +9956,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
-        <v>363.4633956979714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>142.999281387019</v>
       </c>
     </row>
     <row r="3">
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>87.87527408662064</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,22 +22786,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>178.4065247979884</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>167.5047185668097</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7252358559294</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>94.7608136808341</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>60.04420517432507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>132.5602576318105</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22983,31 +22983,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874038</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>259.584175166063</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>145.5033637727396</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23077,16 +23077,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846774</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268019</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.6923398882896</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>156.65740079033</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598912</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>15.59235192972082</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908972</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>21.19486303967034</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>50.19334227161261</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>87.91761393773622</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>243.9828280059589</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>53.30008710312326</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23782,16 +23782,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>115.3834518935211</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>37.30951261989662</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23943,22 +23943,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.25160475629417</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>62.6986147845609</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>31.78471318999493</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>145.6511605187163</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>96.03146876689453</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,7 +24180,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.64776835319847</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>31.86743971662668</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>19.58227584217826</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24259,10 +24259,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>66.9798240104455</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>31.36287103856989</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24654,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>187.1970221183354</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.91033042510486</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>86.79296004919111</v>
+        <v>83.82994291767365</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24894,16 +24894,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>157.4983735401882</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724705</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>324.9505676218554</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>9.247017760797291</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25125,10 +25125,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>56.01837628787177</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>183.0341204875893</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>43.19074246426516</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>152.4187013741505</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>118.3328055020464</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25362,7 +25362,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
-        <v>172.8051113153278</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25447,16 +25447,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.62049154535651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>366.3799747531028</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>31.86743971662696</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>131.7256075138634</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>43.85831389017045</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>305.6038295704973</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>1.107082982095392</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>92.71246049576312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465488.0628680184</v>
+        <v>494243.3891182223</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>468513.8588979499</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484207.1823542063</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781992</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="C2" t="n">
-        <v>150588.1755146548</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="D2" t="n">
-        <v>156006.1355264979</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="E2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="F2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="H2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="J2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="K2" t="n">
         <v>260237.3490141815</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="K2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="L2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="M2" t="n">
         <v>260237.3490141816</v>
@@ -26352,7 +26352,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141817</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>440708.0835147455</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753593</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835739</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>102466.1171957466</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847505</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.117690635</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33649.84678425771</v>
+        <v>33777.16046143055</v>
       </c>
       <c r="C4" t="n">
-        <v>33663.59862924285</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>33719.40849968307</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26447,13 +26447,13 @@
         <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="M4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
         <v>35944.74664026682</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683338</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26496,10 +26496,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13155.94180136795</v>
+        <v>-63455.18422126239</v>
       </c>
       <c r="C6" t="n">
-        <v>63855.64757802831</v>
+        <v>-305342.9729500593</v>
       </c>
       <c r="D6" t="n">
-        <v>49787.33266244554</v>
+        <v>135365.1105646861</v>
       </c>
       <c r="E6" t="n">
-        <v>-232659.3133730685</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="F6" t="n">
-        <v>175061.1243105053</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="G6" t="n">
-        <v>175061.1243105052</v>
+        <v>168992.7105646862</v>
       </c>
       <c r="H6" t="n">
-        <v>175061.1243105053</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="I6" t="n">
-        <v>175061.1243105052</v>
+        <v>168992.7105646862</v>
       </c>
       <c r="J6" t="n">
-        <v>112001.181711399</v>
+        <v>96738.01569354704</v>
       </c>
       <c r="K6" t="n">
-        <v>174147.8685080482</v>
+        <v>66526.59336893949</v>
       </c>
       <c r="L6" t="n">
-        <v>170333.5611916579</v>
+        <v>168992.7105646862</v>
       </c>
       <c r="M6" t="n">
-        <v>72627.00661987034</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="N6" t="n">
-        <v>175061.1243105053</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="O6" t="n">
-        <v>175061.1243105054</v>
+        <v>168992.7105646862</v>
       </c>
       <c r="P6" t="n">
-        <v>175061.1243105054</v>
+        <v>168992.7105646862</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516672</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26816,22 +26816,22 @@
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>342.7224034979612</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354754</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302968</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>398.1307590522</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028884</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>398.1307590521998</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028882</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>398.1307590522</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028884</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367775</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887899</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56672738103504</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760526</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324521</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455514</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895192</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019349</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841755</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>13.303932450608</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214545037</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679652</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332559</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318495</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104837</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125476</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246607</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750399</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688238</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430047</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418822</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523179</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.31869329921068</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605635</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705524055</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467912</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259097</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047555</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281388</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166792</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471498</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50524192898881</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848097</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150964</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037132002</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705268</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473157</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750187</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588726</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>219.7699536912574</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>165.3469522521511</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194294</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150183</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945117</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455867</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894762</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668211</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988751</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.61704058897</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604674</v>
+        <v>365.2844632307146</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516672</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>203.5682515976204</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031301</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178763</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>46.0891188908294</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507669</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919064</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>2.29774030202549</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37788,7 +37788,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
